--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/法人资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/法人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>120.45122</v>
-      </c>
-      <c r="C2" t="n">
-        <v>503.16931</v>
-      </c>
-      <c r="D2" t="n">
-        <v>41.10035</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>9.14833</v>
-      </c>
-      <c r="G2" t="n">
-        <v>267.32824</v>
-      </c>
-      <c r="H2" t="n">
-        <v>84.48730999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>124.42263</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.45284</v>
-      </c>
-      <c r="K2" t="n">
-        <v>52.37416</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5210.46517</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.66359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.94827</v>
-      </c>
-      <c r="O2" t="n">
-        <v>193.53801</v>
-      </c>
-      <c r="P2" t="n">
-        <v>175.17405</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14.49276</v>
-      </c>
-      <c r="R2" t="n">
-        <v>30.36426</v>
-      </c>
-      <c r="S2" t="n">
-        <v>21.24927</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.12215</v>
-      </c>
-      <c r="U2" t="n">
-        <v>23.91993</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.1435</v>
-      </c>
-      <c r="X2" t="n">
-        <v>62.35013</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1379.57424</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>257.80751</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>198.63406</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10.6397</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>347.82665</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>213.05756</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>151.32045</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>29.88481</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>42.3836</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>41.34085</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>189.88596</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15.35406</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>46.36864</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>46.99288</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>71.10104</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>279.77173</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.61776</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>128.15371</v>
-      </c>
-      <c r="C3" t="n">
-        <v>821.16477</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.08165</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>10.11244</v>
-      </c>
-      <c r="G3" t="n">
-        <v>527.48251</v>
-      </c>
-      <c r="H3" t="n">
-        <v>113.93541</v>
-      </c>
-      <c r="I3" t="n">
-        <v>157.12178</v>
-      </c>
-      <c r="J3" t="n">
-        <v>33.02479</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55.64464</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6607.21794</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10.8882</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.40596</v>
-      </c>
-      <c r="O3" t="n">
-        <v>225.79341</v>
-      </c>
-      <c r="P3" t="n">
-        <v>187.66698</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14.7708</v>
-      </c>
-      <c r="R3" t="n">
-        <v>36.95467</v>
-      </c>
-      <c r="S3" t="n">
-        <v>31.54207</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.14146</v>
-      </c>
-      <c r="U3" t="n">
-        <v>31.12347</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.52073</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10.96176</v>
-      </c>
-      <c r="X3" t="n">
-        <v>147.9897</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1393.56561</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>375.26695</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>224.10516</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.64356</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>436.55302</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>179.54849</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>183.3187</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>63.86938</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>62.2631</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>72.99276</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>264.95109</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.61602</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>61.19409</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>76.47794</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>95.32107999999999</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>343.70153</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.89168</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>140.37311</v>
-      </c>
-      <c r="C4" t="n">
-        <v>785.84025</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50.04374</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>11.20277</v>
-      </c>
-      <c r="G4" t="n">
-        <v>709.48425</v>
-      </c>
-      <c r="H4" t="n">
-        <v>117.85992</v>
-      </c>
-      <c r="I4" t="n">
-        <v>220.64011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45.90643</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68.2991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7978.77558</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12.41047</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.25531</v>
-      </c>
-      <c r="O4" t="n">
-        <v>243.87423</v>
-      </c>
-      <c r="P4" t="n">
-        <v>161.3407</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19.47671</v>
-      </c>
-      <c r="R4" t="n">
-        <v>44.66563</v>
-      </c>
-      <c r="S4" t="n">
-        <v>32.32314</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.35058</v>
-      </c>
-      <c r="U4" t="n">
-        <v>42.96843</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.36401</v>
-      </c>
-      <c r="W4" t="n">
-        <v>20.05343</v>
-      </c>
-      <c r="X4" t="n">
-        <v>225.87942</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1571.06546</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>443.96584</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>247.1343</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.01849</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>418.4586</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>808.94401</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>197.91339</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>29.9038</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>64.68521</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>66.20005</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>281.00051</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>37.11662</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>70.6936</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>83.6421</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>112.22963</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>420.76886</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.04811</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
